--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.151663855771372</v>
+        <v>0.2484426666666667</v>
       </c>
       <c r="H2">
-        <v>0.151663855771372</v>
+        <v>0.745328</v>
       </c>
       <c r="I2">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="J2">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.595162171456952</v>
+        <v>1.498163333333333</v>
       </c>
       <c r="N2">
-        <v>0.595162171456952</v>
+        <v>4.49449</v>
       </c>
       <c r="O2">
-        <v>0.009356497947649964</v>
+        <v>0.02101839619520399</v>
       </c>
       <c r="P2">
-        <v>0.009356497947649964</v>
+        <v>0.021018396195204</v>
       </c>
       <c r="Q2">
-        <v>0.09026458973242375</v>
+        <v>0.3722076936355556</v>
       </c>
       <c r="R2">
-        <v>0.09026458973242375</v>
+        <v>3.34986924272</v>
       </c>
       <c r="S2">
-        <v>0.0008966905891147833</v>
+        <v>0.002935016773710713</v>
       </c>
       <c r="T2">
-        <v>0.0008966905891147833</v>
+        <v>0.002935016773710713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.151663855771372</v>
+        <v>0.2484426666666667</v>
       </c>
       <c r="H3">
-        <v>0.151663855771372</v>
+        <v>0.745328</v>
       </c>
       <c r="I3">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="J3">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9347843099434</v>
+        <v>27.96588933333333</v>
       </c>
       <c r="N3">
-        <v>27.9347843099434</v>
+        <v>83.897668</v>
       </c>
       <c r="O3">
-        <v>0.4391605592542852</v>
+        <v>0.3923458336491322</v>
       </c>
       <c r="P3">
-        <v>0.4391605592542852</v>
+        <v>0.3923458336491322</v>
       </c>
       <c r="Q3">
-        <v>4.236697098587642</v>
+        <v>6.947920121678222</v>
       </c>
       <c r="R3">
-        <v>4.236697098587642</v>
+        <v>62.531281095104</v>
       </c>
       <c r="S3">
-        <v>0.04208745011188825</v>
+        <v>0.05478732021991651</v>
       </c>
       <c r="T3">
-        <v>0.04208745011188825</v>
+        <v>0.05478732021991651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.151663855771372</v>
+        <v>0.2484426666666667</v>
       </c>
       <c r="H4">
-        <v>0.151663855771372</v>
+        <v>0.745328</v>
       </c>
       <c r="I4">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="J4">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.0795551491148</v>
+        <v>41.81461766666666</v>
       </c>
       <c r="N4">
-        <v>35.0795551491148</v>
+        <v>125.443853</v>
       </c>
       <c r="O4">
-        <v>0.5514829427980649</v>
+        <v>0.5866357701556637</v>
       </c>
       <c r="P4">
-        <v>0.5514829427980649</v>
+        <v>0.5866357701556638</v>
       </c>
       <c r="Q4">
-        <v>5.320300592659238</v>
+        <v>10.38853511875378</v>
       </c>
       <c r="R4">
-        <v>5.320300592659238</v>
+        <v>93.49681606878399</v>
       </c>
       <c r="S4">
-        <v>0.0528519930887769</v>
+        <v>0.081918040247926</v>
       </c>
       <c r="T4">
-        <v>0.0528519930887769</v>
+        <v>0.08191804024792601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02664302569929</v>
+        <v>1.055305333333333</v>
       </c>
       <c r="H5">
-        <v>1.02664302569929</v>
+        <v>3.165916</v>
       </c>
       <c r="I5">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122046</v>
       </c>
       <c r="J5">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.595162171456952</v>
+        <v>1.498163333333333</v>
       </c>
       <c r="N5">
-        <v>0.595162171456952</v>
+        <v>4.49449</v>
       </c>
       <c r="O5">
-        <v>0.009356497947649964</v>
+        <v>0.02101839619520399</v>
       </c>
       <c r="P5">
-        <v>0.009356497947649964</v>
+        <v>0.021018396195204</v>
       </c>
       <c r="Q5">
-        <v>0.6110190924863249</v>
+        <v>1.581019755871111</v>
       </c>
       <c r="R5">
-        <v>0.6110190924863249</v>
+        <v>14.22917780284</v>
       </c>
       <c r="S5">
-        <v>0.006069878250442374</v>
+        <v>0.01246701662108377</v>
       </c>
       <c r="T5">
-        <v>0.006069878250442374</v>
+        <v>0.01246701662108378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02664302569929</v>
+        <v>1.055305333333333</v>
       </c>
       <c r="H6">
-        <v>1.02664302569929</v>
+        <v>3.165916</v>
       </c>
       <c r="I6">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122046</v>
       </c>
       <c r="J6">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122047</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.9347843099434</v>
+        <v>27.96588933333333</v>
       </c>
       <c r="N6">
-        <v>27.9347843099434</v>
+        <v>83.897668</v>
       </c>
       <c r="O6">
-        <v>0.4391605592542852</v>
+        <v>0.3923458336491322</v>
       </c>
       <c r="P6">
-        <v>0.4391605592542852</v>
+        <v>0.3923458336491322</v>
       </c>
       <c r="Q6">
-        <v>28.67905148621734</v>
+        <v>29.51255216487644</v>
       </c>
       <c r="R6">
-        <v>28.67905148621734</v>
+        <v>265.612969483888</v>
       </c>
       <c r="S6">
-        <v>0.2848983820639021</v>
+        <v>0.2327190896911926</v>
       </c>
       <c r="T6">
-        <v>0.2848983820639021</v>
+        <v>0.2327190896911926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02664302569929</v>
+        <v>1.055305333333333</v>
       </c>
       <c r="H7">
-        <v>1.02664302569929</v>
+        <v>3.165916</v>
       </c>
       <c r="I7">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122046</v>
       </c>
       <c r="J7">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122047</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.0795551491148</v>
+        <v>41.81461766666666</v>
       </c>
       <c r="N7">
-        <v>35.0795551491148</v>
+        <v>125.443853</v>
       </c>
       <c r="O7">
-        <v>0.5514829427980649</v>
+        <v>0.5866357701556637</v>
       </c>
       <c r="P7">
-        <v>0.5514829427980649</v>
+        <v>0.5866357701556638</v>
       </c>
       <c r="Q7">
-        <v>36.01418063847233</v>
+        <v>44.12718903492755</v>
       </c>
       <c r="R7">
-        <v>36.01418063847233</v>
+        <v>397.144701314348</v>
       </c>
       <c r="S7">
-        <v>0.3577657301598289</v>
+        <v>0.3479617487999281</v>
       </c>
       <c r="T7">
-        <v>0.3577657301598289</v>
+        <v>0.3479617487999283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.40422623807329</v>
+        <v>0.4754126666666667</v>
       </c>
       <c r="H8">
-        <v>0.40422623807329</v>
+        <v>1.426238</v>
       </c>
       <c r="I8">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="J8">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.595162171456952</v>
+        <v>1.498163333333333</v>
       </c>
       <c r="N8">
-        <v>0.595162171456952</v>
+        <v>4.49449</v>
       </c>
       <c r="O8">
-        <v>0.009356497947649964</v>
+        <v>0.02101839619520399</v>
       </c>
       <c r="P8">
-        <v>0.009356497947649964</v>
+        <v>0.021018396195204</v>
       </c>
       <c r="Q8">
-        <v>0.2405801656115741</v>
+        <v>0.7122458254022223</v>
       </c>
       <c r="R8">
-        <v>0.2405801656115741</v>
+        <v>6.41021242862</v>
       </c>
       <c r="S8">
-        <v>0.002389929108092806</v>
+        <v>0.005616362800409511</v>
       </c>
       <c r="T8">
-        <v>0.002389929108092806</v>
+        <v>0.005616362800409512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.40422623807329</v>
+        <v>0.4754126666666667</v>
       </c>
       <c r="H9">
-        <v>0.40422623807329</v>
+        <v>1.426238</v>
       </c>
       <c r="I9">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="J9">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9347843099434</v>
+        <v>27.96588933333333</v>
       </c>
       <c r="N9">
-        <v>27.9347843099434</v>
+        <v>83.897668</v>
       </c>
       <c r="O9">
-        <v>0.4391605592542852</v>
+        <v>0.3923458336491322</v>
       </c>
       <c r="P9">
-        <v>0.4391605592542852</v>
+        <v>0.3923458336491322</v>
       </c>
       <c r="Q9">
-        <v>11.29197277299719</v>
+        <v>13.29533802366489</v>
       </c>
       <c r="R9">
-        <v>11.29197277299719</v>
+        <v>119.658042212984</v>
       </c>
       <c r="S9">
-        <v>0.1121747270784948</v>
+        <v>0.1048394237380231</v>
       </c>
       <c r="T9">
-        <v>0.1121747270784948</v>
+        <v>0.1048394237380231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.40422623807329</v>
+        <v>0.4754126666666667</v>
       </c>
       <c r="H10">
-        <v>0.40422623807329</v>
+        <v>1.426238</v>
       </c>
       <c r="I10">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="J10">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.0795551491148</v>
+        <v>41.81461766666666</v>
       </c>
       <c r="N10">
-        <v>35.0795551491148</v>
+        <v>125.443853</v>
       </c>
       <c r="O10">
-        <v>0.5514829427980649</v>
+        <v>0.5866357701556637</v>
       </c>
       <c r="P10">
-        <v>0.5514829427980649</v>
+        <v>0.5866357701556638</v>
       </c>
       <c r="Q10">
-        <v>14.18007661121119</v>
+        <v>19.87919889055711</v>
       </c>
       <c r="R10">
-        <v>14.18007661121119</v>
+        <v>178.912790015014</v>
       </c>
       <c r="S10">
-        <v>0.140865219549459</v>
+        <v>0.1567559811078096</v>
       </c>
       <c r="T10">
-        <v>0.140865219549459</v>
+        <v>0.1567559811078096</v>
       </c>
     </row>
   </sheetData>
